--- a/html/resources/1condition/mainTrials8.xlsx
+++ b/html/resources/1condition/mainTrials8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Documents/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF85809-15B8-3E48-9EAD-DAC3B376344D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8031E58E-EADE-7C4C-8A9E-5B0D2AB822A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="22820" windowHeight="7220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3140" windowWidth="22940" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -507,10 +507,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -540,13 +540,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -573,16 +573,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -666,16 +666,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -729,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -762,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -846,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -876,16 +876,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>1</v>
